--- a/graph_generation/results/hermes_llama2/level_6/k_1.xlsx
+++ b/graph_generation/results/hermes_llama2/level_6/k_1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="89">
   <si>
     <t>prompt</t>
   </si>
@@ -30,7 +30,7 @@
     <t>evaluator_response</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -45,26 +45,27 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N
- A 0 4 0 0 5 0 0 0 0 0 0 0 0 0
- B 4 0 2 0 0 2 0 0 0 0 0 0 0 0
- C 0 2 0 5 0 0 5 0 0 0 0 0 0 0
- D 0 0 5 0 0 0 0 5 0 0 0 0 0 0
- E 5 0 0 0 0 1 0 0 3 0 0 0 0 0
- F 0 2 0 0 1 0 4 0 0 0 0 0 0 0
- G 0 0 5 0 0 4 0 1 0 0 0 0 0 0
- H 0 0 0 5 0 0 1 0 0 0 0 2 0 0
- I 0 0 0 0 3 0 0 0 0 3 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 4 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 3 0
- L 0 0 0 0 0 0 0 2 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 0 0 3 0 0 3
- N 0 0 0 0 0 0 0 0 0 0 0 2 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 2 0 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0
+ E 3 0 0 0 0 5 0 0 3 0 0 0 0 0 0
+ F 0 2 0 0 5 0 0 0 0 2 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ H 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0
+ I 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
+ J 0 0 0 0 0 2 0 0 2 0 4 0 3 0 0
+ K 0 0 0 0 0 0 5 0 0 4 0 4 0 0 0
+ L 0 0 0 0 0 0 0 4 0 0 4 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1
+ O 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -79,27 +80,28 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 5 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0
- D 2 0 0 0 3 0 0 3 0 0 0 0 0 0 0
- E 0 4 0 3 0 0 0 0 3 0 0 0 0 0 0
- F 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 0 0 0 5 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 5 0 0 0
- I 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 2 0 1 0 0 4 0
- K 0 0 0 0 0 0 5 0 0 1 0 0 0 0 4
- L 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0
- N 0 0 0 0 0 0 0 0 0 4 0 0 2 0 3
- O 0 0 0 0 0 0 0 0 0 0 4 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 2 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 1 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 3 0 0 4 0 0 0
+ J 0 0 0 0 0 2 0 0 3 0 1 0 0 2 0 0
+ K 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 2 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 3 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -114,28 +116,27 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 3 0 0 2 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 4 0 0 1 0 0 0 0 0 0
- G 0 0 2 0 0 4 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 3 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 3 0 0 5 0 0 0
- J 0 0 0 0 0 1 0 0 3 0 4 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 1 0 0 5 0
- L 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 1 0 3 0
- O 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0 2
- P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
+ B 1 0 1 0 0 4 0 0 0 0 0 0 0 0 0
+ C 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ F 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 3 0 0 1 0 0 0 0
+ H 0 0 0 1 0 0 3 0 0 0 0 2 0 0 0
+ I 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 2 0 3 0 0
+ K 0 0 0 0 0 0 1 0 0 2 0 3 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 3 0 0 0 5
+ M 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
+ O 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -150,24 +151,22 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 3 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0
- F 0 2 0 0 4 0 3 0 0 5 0 0 0 0 0 0
- G 0 0 5 0 0 3 0 1 0 0 1 0 0 0 0 0
- H 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 5 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 2 0 0 3 0 0
- K 0 0 0 0 0 0 1 0 0 2 0 3 0 0 1 0
- L 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 3 0 1 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 4
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0
+What is the least cost path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 2 0 2 0 0 0 0 0 0 0 0 0 0
+ B 2 0 3 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 0 5 0 0 0 0 0 0 0 0 0
+ D 2 0 0 0 0 0 5 0 0 0 0 0 0 0
+ E 0 0 5 0 0 1 0 0 3 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 4 0 0 0 0
+ G 0 0 0 5 0 0 0 1 0 0 1 0 0 0
+ H 0 0 0 0 0 0 1 0 5 0 0 0 0 0
+ I 0 0 0 0 3 0 0 5 0 4 0 0 4 0
+ J 0 0 0 0 0 4 0 0 4 0 0 0 0 5
+ K 0 0 0 0 0 0 1 0 0 0 0 5 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ M 0 0 0 0 0 0 0 0 4 0 0 0 0 1
+ N 0 0 0 0 0 0 0 0 0 5 0 0 1 0
     </t>
   </si>
   <si>
@@ -188,26 +187,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
- F 0 2 0 0 1 0 4 0 0 5 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 3 0 0 0 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 5 0 0 0 0 5 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 1
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 3 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 4 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 5 0 0 4 0 0 0 0 0 0 0
+ F 0 3 0 0 5 0 4 0 0 0 0 0 0 0 0 0
+ G 0 0 1 0 0 4 0 0 0 0 1 0 0 0 0 0
+ H 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 1 0 0 5 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 5 0 2 0 0 1 0
+ L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2
+ M 0 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 1
+ P 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -222,28 +221,27 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 2 0 0 5 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 1 0 0 5 0 0 0 0 0 0
- G 0 0 5 0 0 1 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 1 0 0 5 0 0 0
- J 0 0 0 0 0 5 0 0 1 0 4 0 0 2 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0
- L 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 5 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 3 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0
+ B 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 2 0 5 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 4 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ F 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0
+ G 0 0 0 4 0 1 0 0 0 0 5 0 0 0 0
+ H 0 0 0 0 3 0 0 0 5 0 0 2 0 0 0
+ I 0 0 0 0 0 0 0 5 0 5 0 0 2 0 0
+ J 0 0 0 0 0 0 0 0 5 0 2 0 0 5 0
+ K 0 0 0 0 0 0 5 0 0 2 0 0 0 0 2
+ L 0 0 0 0 0 0 0 2 0 0 0 0 5 0 0
+ M 0 0 0 0 0 0 0 0 2 0 0 5 0 5 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 5 0 4
+ O 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -258,28 +256,27 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 2 0 0 3 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- G 0 0 3 0 0 5 0 3 0 0 2 0 0 0 0 0
- H 0 0 0 2 0 0 3 0 0 0 0 5 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 3 0 0 4 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 2 0 0 0 0 3 0 0 3 0
- L 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 3
- M 0 0 0 0 0 0 0 0 4 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 3 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 15 nodes labelled A to O. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node O? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O
+ A 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 3 0 0 0 0 0 0 0 0
+ D 4 0 0 0 4 0 0 5 0 0 0 0 0 0 0
+ E 0 0 0 4 0 2 0 0 3 0 0 0 0 0 0
+ F 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0
+ G 0 0 3 0 0 1 0 0 0 0 3 0 0 0 0
+ H 0 0 0 5 0 0 0 0 0 0 0 2 0 0 0
+ I 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 1 0 0 0 0 4 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 5
+ L 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
+ N 0 0 0 0 0 0 0 0 0 4 0 0 1 0 1
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -294,23 +291,24 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node O? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O
- A 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 4 0 4 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 3 0 0 1 0 0 0 0 0 0 0
- E 0 4 0 3 0 1 0 0 3 0 0 0 0 0 0
- F 0 0 3 0 1 0 2 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0
- H 0 0 0 1 0 0 0 0 4 0 0 5 0 0 0
- I 0 0 0 0 3 0 0 4 0 3 0 0 1 0 0
- J 0 0 0 0 0 1 0 0 3 0 1 0 0 2 0
- K 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1
- L 0 0 0 0 0 0 0 5 0 0 0 0 2 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 2 0 2 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 2 0 2
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
+What is the least cost path from node A to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P
+ A 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 2 0 0 4 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 4 0 0 2 0 3 0 0 1 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 4 0 0 0 0
+ I 0 0 0 0 4 0 0 0 0 0 0 0 3 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ K 0 0 0 0 0 0 1 0 0 2 0 5 0 0 1 0
+ L 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 1
+ M 0 0 0 0 0 0 0 0 3 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2
+ P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
     </t>
   </si>
   <si>
@@ -331,26 +329,26 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node P? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P
- A 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0
- F 0 3 0 0 5 0 0 0 0 3 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 3 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 1 0 0 1 0 0 0
- J 0 0 0 0 0 3 0 0 1 0 2 0 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0
- L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 1
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0
+ E 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0
+ F 0 2 0 0 2 0 5 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 5 0 3 0 0 1 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 0 0 0 3 0 0 0 0
+ I 0 0 0 0 1 0 0 0 0 5 0 0 1 0 0 0
+ J 0 0 0 0 0 0 0 0 5 0 2 0 0 3 0 0
+ K 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 5
  M 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 2 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 3 0 0 4 0 1
- P 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ N 0 0 0 0 0 0 0 0 0 3 0 0 2 0 3 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 4
+ P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 4 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node I? Return the sequence of nodes in response.
    A B C D E F G H I
@@ -365,57 +363,83 @@
  I 0 0 0 0 0 1 0 1 0
 Solution: A -&gt; B -&gt; E -&gt; H -&gt; I
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node P? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0
- E 4 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- F 0 3 0 0 0 0 3 0 0 4 0 0 0 0 0 0
- G 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0
- H 0 0 0 5 0 0 3 0 0 0 0 4 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0
- J 0 0 0 0 0 4 0 0 0 0 4 0 0 3 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 3 0 0 3 0 4 0
- O 0 0 0 0 0 0 0 0 0 0 1 0 0 4 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; N</t>
-  </si>
-  <si>
-    <t>A -&gt; D -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; J -&gt; K -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; G -&gt; H -&gt; L -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; L -&gt; P</t>
+What is the least cost path from node A to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 1 0 0 1 0 0 0 0 0 0 0 0 0
+ B 1 0 2 0 0 4 0 0 0 0 0 0 0 0
+ C 0 2 0 1 0 0 5 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 3 0 0 0 0 0 0
+ E 1 0 0 0 0 0 0 0 3 0 0 0 0 0
+ F 0 4 0 0 0 0 0 0 0 4 0 0 0 0
+ G 0 0 5 0 0 0 0 0 0 0 3 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 1 0 0 0 0
+ J 0 0 0 0 0 4 0 0 1 0 0 3 0 0
+ K 0 0 0 0 0 0 3 0 0 0 0 0 2 0
+ L 0 0 0 0 0 0 0 0 0 3 0 0 4 0
+ M 0 0 0 0 0 0 0 0 0 0 2 4 0 2
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; M -&gt; N -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; H -&gt; L -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; H -&gt; L -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; E -&gt; I -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; G -&gt; K -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; G -&gt; K -&gt; O</t>
+  </si>
+  <si>
+    <t>A -&gt; D -&gt; H -&gt; L -&gt; M -&gt; N -&gt; O</t>
   </si>
   <si>
     <t>A -&gt; B -&gt; F -&gt; G -&gt; K -&gt; O -&gt; P</t>
   </si>
   <si>
-    <t>A -&gt; B -&gt; E -&gt; F -&gt; J -&gt; K -&gt; O</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; I -&gt; J -&gt; K -&gt; O -&gt; P</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; F -&gt; J -&gt; K -&gt; O -&gt; P</t>
+    <t>A -&gt; E -&gt; I -&gt; M -&gt; N -&gt; O -&gt; P</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node O:
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O
+The total cost of this path is 5 + 2 + 1 + 2 + 1 + 4 + 4 + 3 + 5 + 5 + 1 = 32.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+The total cost of this path is 4 + 2 + 1 + 2 + 1 + 2 + 1 + 2 + 3 + 3 + 2 = 23.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node O:
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O
+The total cost of this path is 1 + 2 + 1 + 2 + 1 + 3 + 2 + 1 + 1 + 1 = 15.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node N, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node N:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N
-The total cost of this path is 3 + 2 + 1 + 2 + 1 + 4 + 3 + 2 + 3 = 22.</t>
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N
+The total cost of this path is 10.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+The total cost of this path is 10.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node O:
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O
+The total cost of this path is 1 + 3 + 1 + 5 + 2 + 2 + 2 + 5 + 5 + 5 + 4 = 30.</t>
   </si>
   <si>
     <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node O:
@@ -424,39 +448,22 @@
   </si>
   <si>
     <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-The total cost of this path is 10.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-The total cost of this path is 4 + 2 + 1 + 1 + 1 + 2 + 1 + 3 + 3 + 3 + 4 = 25.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-The total cost of this path is 4 + 2 + 1 + 1 + 1 + 5 + 1 + 2 + 3 + 4 + 5 = 28.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-The total cost of this path is 3 + 2 + 1 + 2 + 1 + 3 + 2 + 3 + 3 + 3 + 3 = 28.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node O, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node O:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O
-The total cost of this path is 1 + 2 + 1 + 2 + 1 + 1 + 5 + 2 + 2 + 2 = 19.</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node A to node P, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node P:
-A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
-The total cost of this path is 1 + 2 + 1 + 2 + 1 + 4 + 1 + 5 + 2 + 3 + 4 = 25.</t>
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P
+The total cost of this path is 4 + 2 + 1 + 1 + 1 + 3 + 1 + 3 + 2 + 4 = 22.</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node A to node N, we can use Dijkstra's algorithm. Here's the sequence of nodes in the least cost path from node A to node N:
+A -&gt; B -&gt; E -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N
+The total cost of this path is 1 + 2 + 3 + 1 + 1 + 1 + 2 + 2 + 4 = 18.</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>Correct</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -487,37 +494,36 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 5 0 0 0 4 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 3 0 0 0 3 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 4 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 4 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 4 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 5
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 2 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 4 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 3 0 0 0 3 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 5 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 5 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 4 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 3 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 1 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 3 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -548,29 +554,33 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node U? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 1 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 3 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 4 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 2 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- H 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 2 0 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0
- J 0 0 0 0 0 3 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 5 0 0 4 0 0 0 0 0 4 0 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 5 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 4 0 0 0 1 0 1 0 0 0 3 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 5
- Q 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0
+What is the least cost path from node A to node Y? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 3 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 3 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 1 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 4 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 2 0 0 0 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 2 0 3 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 2 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 1 0 0 0 5 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0 2 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 2 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0
     </t>
   </si>
   <si>
@@ -607,35 +617,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 4 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 3 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 5 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 2 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 3 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 5 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 4 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 5 0 0 0 3 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 5 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 5 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 2 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -666,33 +676,30 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 1 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 4 0 0 0 2 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 1 0 0 0 1 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 4 0 4 0 0 0 4 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 5 0 0 0 4 0 2 0 0 0 1 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 3 0 0 0 2 0 3 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 1 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 4 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 1 0
+What is the least cost path from node A to node V? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 1 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 4 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 3 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 4 0 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 4 0 0 1 0 3 0 0 1 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 5 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 3 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 5
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 3 0 3 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 1
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0
     </t>
   </si>
   <si>
@@ -730,34 +737,34 @@
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
  A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 4 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 4 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 2 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 1 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 4 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 5 0 0 0 2 0 2 0 0 0 4 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 1 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 4 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 3 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 2 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ B 4 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 5 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 4 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 2 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 5 0 0 0 3 0 2 0 0 0 1 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 3 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0 0 1 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 2 0 0 0 1 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 4 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 5
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 5 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -788,33 +795,32 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 4 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 5 0 0 0 5 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 3 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 3 0 0 0 1 0 5 0 0 0 2 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 1 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 5 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 4 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 2
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0
+What is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 3 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 5 0 0 2 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 2 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 5 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 3 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0
     </t>
   </si>
   <si>
@@ -851,31 +857,31 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  E 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 4 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 5 0 0 0 2 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 5 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 3 0 0 0 3 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 3
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 5 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0
+ F 2 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 3 0 0 0 5 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 1 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 4 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 5 0 0 0 3 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 2 0 0 0 3 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 5 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 1 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -912,35 +918,35 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 3 0 0 0 0 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 3 0 0 0 2 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 3 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 2 0 5 0 0 0 1 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 5 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 5 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 5 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 5 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 1 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 1 0 0 0 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 5 0 0 0 3 0 4 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 3 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 2 0 0 0 5 0 0 0 0 0 5 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 5 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 1 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 1 0 0 0 2 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 4 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 4 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 4 0 2
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node A to node Y? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -971,33 +977,32 @@
  Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0
 Solution: A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node Y? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 1 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 5 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 4 0 0 0 1 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 5 0 0 0 3 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 2 0 4 0 0 0 1 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 1 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 3 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 2 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 4
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0
+What is the least cost path from node A to node X? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 2 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 3 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 3 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 4 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 1 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 3 0 0 4 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 4
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0
     </t>
   </si>
   <si>
@@ -1034,79 +1039,76 @@
  Given these examples, answer the following quesiton.
 What is the least cost path from node A to node X? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 3 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  D 0 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 3 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 5 0 0 2 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 5 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 4 0 0 3 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 4 0 0 0 2 0 4 0 0 0 2 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 2 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 2 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 1 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 3
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 4 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 5 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 1
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; H -&gt; M -&gt; R -&gt; S -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; C -&gt; H -&gt; L -&gt; M -&gt; N -&gt; S -&gt; T -&gt; U</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; H -&gt; M -&gt; R -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; H -&gt; I -&gt; N -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; F -&gt; G -&gt; L -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; G -&gt; H -&gt; M -&gt; N -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; N -&gt; O -&gt; T -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; B -&gt; C -&gt; H -&gt; M -&gt; N -&gt; S -&gt; X -&gt; Y</t>
-  </si>
-  <si>
-    <t>A -&gt; E -&gt; F -&gt; K -&gt; P -&gt; Q -&gt; L -&gt; M -&gt; R -&gt; W -&gt; X</t>
+ E 1 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 4 0 0 5 0 3 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 4 0 0 1 0 5 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 2 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 5 0 0 0 3 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 3 0 0 0 5 0 4 0 0 0 5 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 2 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 5 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0
+    </t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; G -&gt; H -&gt; L -&gt; Q -&gt; V -&gt; W -&gt; X</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; L -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; G -&gt; H -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; J -&gt; N -&gt; O -&gt; S -&gt; T -&gt; U -&gt; V</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; F -&gt; G -&gt; L -&gt; M -&gt; R -&gt; S -&gt; X</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; P -&gt; Q -&gt; R -&gt; W -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; F -&gt; K -&gt; P -&gt; Q -&gt; V -&gt; W -&gt; X -&gt; Y</t>
+  </si>
+  <si>
+    <t>A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; N -&gt; S -&gt; W -&gt; X</t>
+  </si>
+  <si>
+    <t>A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; M -&gt; N -&gt; S -&gt; X</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node X is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y. The sequence of nodes is A, B, C, D, I, J, O, T, and Y.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
   </si>
   <si>
     <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y with a total cost of 10.</t>
   </si>
   <si>
-    <t>The least cost path from node A to node U is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y -&gt; U. The sequence of nodes is A, B, C, D, I, J, O, T, Y, and U.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y with a total cost of 4 + 2 + 1 + 5 + 5 + 0 + 0 + 2 = 21.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node Y is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y with a total cost of 4.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node X is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y with a total cost of 10.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t>The least cost path from node A to node V is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; Y -&gt; V.</t>
+  </si>
+  <si>
+    <t>The least cost path from node A to node X is A -&gt; B -&gt; C -&gt; D -&gt; I -&gt; J -&gt; O -&gt; T -&gt; X. The sequence of nodes is A, B, C, D, I, J, O, T, and X.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node R to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1137,33 +1139,31 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node G to node F? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 4 0 0 0
- B 4 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- C 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4
- D 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 3 5 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 2 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 0
- H 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0 5 0 0 0 0
- I 0 4 0 0 0 0 0 5 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 5 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 3 0 0 0 0 0 0 3 0 0
- L 0 0 0 5 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0 0
- M 2 0 0 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- Q 0 0 0 0 3 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 4 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- S 0 0 3 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 5 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- V 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- W 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- X 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0
- Y 0 0 4 0 0 4 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+What is the least cost path from node K to node V? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W
+ A 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 0 0
+ C 0 0 0 2 0 0 0 5 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 4 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 4
+ G 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 1 0 2 0 0
+ H 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0
+ I 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0
+ J 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 5 0
+ K 0 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ N 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ P 0 0 0 0 2 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 5
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 1 0 0
+ R 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 1
+ S 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 2 5 0 0 0 3 0 3 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0 0 0
+ W 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1198,33 +1198,33 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node J to node F? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- B 0 0 0 0 0 0 0 0 0 0 3 0 0 1 4 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
- G 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 2 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0
- J 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 4 0 0 0
- N 0 1 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- O 0 4 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 2 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- R 0 0 0 0 0 1 0 0 0 0 0 0 0 4 0 0 0 0 0 4 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 5
- T 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 4 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0
- V 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0
- W 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- X 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0 0
- Y 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+What is the least cost path from node T to node L? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0 1 0 0 0 0 0 0 0 0
+ B 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
+ C 0 0 0 0 2 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 2 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 1 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ G 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0
+ I 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 3 0
+ J 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2
+ K 4 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1
+ L 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ N 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0 0 0
+ P 0 0 0 0 0 0 5 1 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ R 0 0 0 0 0 0 0 3 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0
+ S 0 0 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0
+ T 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ U 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 5 4 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1259,33 +1259,33 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node B to node Q? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 1 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 4 0 0 0 0 0 0
- D 1 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0 0
- E 3 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 5 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 3 0
- H 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0 1 0 0 0 0 0 5
- I 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 4 0 0 4 0 0 0 0
- J 3 0 0 0 0 0 0 0 0 0 5 0 0 0 1 0 0 0 0 5 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 4 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0
- M 0 0 0 4 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- O 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- P 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0
- Q 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0 0 0 2 0 0
- S 0 0 4 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- T 0 0 0 2 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 5 0 0
- U 0 0 0 0 0 0 0 0 4 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0
- X 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- Y 0 0 0 0 0 0 0 5 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+What is the least cost path from node J to node Q? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0 0 4 0 0 0 0 0
+ B 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5
+ C 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ D 0 1 3 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 4 0 0
+ F 0 0 0 3 0 0 0 3 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3
+ H 0 1 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 3 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ J 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 3 3 0 0 0 0 0 0 0
+ L 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2 0 0 0 0 0
+ N 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 3 0
+ Q 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 5 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 4 4 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0
+ U 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ W 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0 0 0 0 0 0 0
+ Y 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -1320,36 +1320,36 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node G to node O? Return the sequence of nodes in response.
+What is the least cost path from node Q to node L? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 5 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 2 0 3 0 0 0 0 0 4 0 2 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2
- G 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0
- H 0 0 0 0 2 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- I 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 3 0 0 2 0 0 0
- J 0 0 0 0 3 0 0 0 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 2 0 0 5 0
- L 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- M 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0
- N 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- P 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 3 0 2
- R 0 0 0 0 2 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 5 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 5 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 3 0 0
- U 0 0 0 0 0 0 0 0 2 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0
- W 0 0 0 0 0 0 0 2 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 1
- X 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+ A 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0
+ B 0 0 4 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 4 0 0 0 0 0 0 0 0 0 3 0 0 3 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 0 0 0 0 0 0 0 0 3
+ E 0 0 0 0 0 0 0 0 3 0 0 1 0 0 5 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 3 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 2 0 0 0 0
+ I 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ J 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 3 0 0
+ L 0 0 3 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 2 0 0 0 0 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ O 1 0 3 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0 5 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 3 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ T 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5
+ U 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ V 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0
+ X 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node R to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1380,33 +1380,32 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node Q to node I? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 3 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0
- D 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 5
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0
- F 3 0 0 0 0 0 0 0 0 0 0 5 0 0 0 4 0 0 0 0 0 0 0 0 0
- G 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- H 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- I 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 0 0 1 0 0 0 5 0 0 0 0 4 0 5 0 0 0
- K 0 0 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- L 0 0 0 4 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 5 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 4 0 0 0 0 1 0 3
- O 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0 0 3 0 0 0 0
- P 0 0 0 0 0 4 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 4 0 0 0 0 0 0 4 0
- S 0 0 0 0 4 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 2 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 5 3 0 0 3 0 0 0 0 0 0 0 0 0 0
- V 0 0 4 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 5 1 0 0 5 0 0 0 0 0 0 0 0
- X 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 1
- Y 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0
+What is the least cost path from node T to node P? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 0 0 0 4 0 0 0 3 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0 0 0 0 4 0 0 0 0
+ C 0 0 0 1 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 1 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ F 4 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 4 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ H 0 0 3 0 0 0 4 0 0 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ J 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0
+ L 0 0 0 3 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0
+ M 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0
+ N 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ O 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0
+ P 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ R 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 4 0
+ T 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ U 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 2 0
+ V 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 1
+ W 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 4 0 2 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0
     </t>
   </si>
   <si>
@@ -1441,37 +1440,37 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node V? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- B 0 0 0 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 5
- H 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 0 0
- J 2 0 0 0 0 0 3 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 3 0 0 0 0 0 0 0 5 5 3 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 1 4 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 4
- N 0 0 0 0 0 0 0 0 0 0 0 3 1 0 0 0 2 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 2 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0
- S 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- T 0 0 0 0 0 3 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 5 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0 3 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 1 3 0 0
- Y 4 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node H to node V? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 1 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 1 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 4 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
+ G 0 0 0 0 0 0 0 1 0 0 0 0 0 5 0 0 0 0 0 0 4 0 0 0 0
+ H 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 1
+ J 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 3
+ L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0
+ M 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
+ N 0 0 0 0 0 0 5 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 5 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 4 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0
+ S 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 4 0 0 0 2 0 3 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 5 0 0 0 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ W 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node R to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1502,36 +1501,37 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node T to node N? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X
- A 0 0 0 1 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 4 0
- C 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0
- D 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 2
- F 0 0 4 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 5 5 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 4 0 0 0 3 0 0
- I 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- J 0 1 0 0 0 0 0 0 0 0 0 0 0 5 3 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- M 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
- N 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 4
- O 0 0 0 0 0 0 0 0 0 3 4 0 0 0 0 0 0 0 0 0 0 0 0 5
- P 0 0 4 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0
- R 0 0 0 0 5 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- T 0 0 5 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 5 0 0 0 0 0 0 5 0 0 0 5 0 0 0 0 0 0 0
- V 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0
- X 0 0 0 0 2 0 0 0 0 0 0 0 0 4 5 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node R to node H? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 3 0 0 0 0 0 0 0 0 0 1 5 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ C 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 4
+ D 0 0 0 0 0 0 0 3 0 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 3 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 0 4 2 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
+ I 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 2 0 0 0 0
+ J 0 0 0 5 0 0 0 0 0 0 0 0 0 2 3 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0
+ L 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 4 0
+ M 5 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ N 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ O 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ P 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 5 0 0
+ Q 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0
+ R 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2
+ T 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0
+ U 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ V 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 5 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 4 2 5 1 0 0 0 0 0 0 0 0 0 0
+ Y 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 24 nodes labelled A to X. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node R to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1562,37 +1562,36 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node M to node R? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 3 0
- B 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 3
- D 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- E 0 0 0 0 0 3 5 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 4 1 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 5 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- I 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 4 0
- J 0 0 0 0 0 3 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 2 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 3 0 0 0
- O 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 4 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 1
- Q 2 0 0 0 0 0 0 0 5 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0
- S 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 4
- U 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 2 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- W 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0
- X 3 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- Y 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node Q to node F? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X
+ A 0 0 5 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 5 0
+ C 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
+ D 0 0 0 0 0 0 0 0 0 3 4 0 0 0 0 0 0 0 5 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 5 0 0
+ F 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3
+ G 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 3 0 4 0 0
+ H 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0
+ J 0 1 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 1 0 0 0 4 0 0 0 0 0 0 2 0 0 0 0
+ M 0 0 0 0 5 0 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 4 0 0 0 2 0 0 0
+ P 0 0 0 0 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 1 4 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
+ S 0 0 0 5 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 3 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0
+ V 0 0 0 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ W 0 5 2 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node R to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1623,35 +1622,37 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node A to node K? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0
- C 0 0 0 0 0 0 0 0 0 0 3 0 0 5 0 0 0 0 0 5 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 0 0 0 0 0 3 0 0
- E 0 0 0 0 0 0 0 0 0 0 5 0 0 1 0 0 0 0 0 0 3 0 0
- F 0 0 0 0 0 0 4 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- H 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0
- I 4 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 3
- J 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 5 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2
- M 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 4 0 2 0 0 0 0 0
- N 0 0 5 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
- O 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 1 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 4 0 4 0 0 0 5 0 0 0 3
- Q 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 4 0 0 0 0
- S 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0 0
- T 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 3 0
- U 0 3 0 3 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- V 0 0 0 0 0 0 1 0 0 0 0 0 0 5 1 0 0 0 0 3 0 0 0
- W 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 3 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 23 nodes labelled A to W. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path from node W to node B? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 4 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ B 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ E 1 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0
+ G 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 5 3 0 0 0 0
+ H 0 0 0 0 0 0 0 0 3 0 0 0 0 4 0 0 0 0 0 0 0 2 0 0 0
+ I 0 0 0 0 0 3 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 2 0 0 0 0 0
+ L 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 3 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 5 0 0
+ N 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 5 3
+ O 0 0 0 0 0 0 2 0 0 0 2 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 5 0 0 0 0 0 0
+ R 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 3
+ T 0 0 0 0 0 0 5 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0
+ V 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ W 0 0 0 0 0 3 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ X 0 0 0 5 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 1 0 0 0 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 3 0 0 2 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 25 nodes labelled A to Y. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path from node R to node G? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T U V W X Y
@@ -1682,93 +1683,94 @@
  Y 0 0 0 0 0 0 0 5 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
 Solution: R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G
  Given these examples, answer the following quesiton.
-What is the least cost path from node K to node S? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W
- A 0 0 2 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 4 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 0 0 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- D 0 4 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 3 0 0 0
- F 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- G 0 0 3 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 4 0
- J 4 0 0 0 0 0 0 0 0 0 0 0 4 2 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0
- M 0 3 2 0 4 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 5 0 0 0 0 0 3
- O 0 0 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 4 0 0 0
- R 0 0 0 0 0 0 0 1 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
- T 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 2 4 0 0 0 0 0 0 0 0 0 0 3
- V 0 0 0 0 0 3 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 3 0 0
-    </t>
-  </si>
-  <si>
-    <t>G -&gt; W -&gt; K -&gt; M -&gt; A -&gt; B -&gt; C -&gt; S -&gt; F</t>
-  </si>
-  <si>
-    <t>J -&gt; I -&gt; V -&gt; M -&gt; O -&gt; B -&gt; N -&gt; R -&gt; F</t>
-  </si>
-  <si>
-    <t>B -&gt; P -&gt; R -&gt; W -&gt; T -&gt; D -&gt; A -&gt; E -&gt; Q</t>
-  </si>
-  <si>
-    <t>G -&gt; C -&gt; L -&gt; U -&gt; I -&gt; R -&gt; E -&gt; P -&gt; O</t>
-  </si>
-  <si>
-    <t>Q -&gt; W -&gt; N -&gt; O -&gt; J -&gt; K -&gt; G -&gt; A -&gt; I</t>
-  </si>
-  <si>
-    <t>A -&gt; J -&gt; G -&gt; K -&gt; Q -&gt; R -&gt; W -&gt; X -&gt; V</t>
-  </si>
-  <si>
-    <t>T -&gt; G -&gt; M -&gt; D -&gt; Q -&gt; W -&gt; B -&gt; J -&gt; N</t>
-  </si>
-  <si>
-    <t>M -&gt; T -&gt; Y -&gt; C -&gt; F -&gt; J -&gt; S -&gt; W -&gt; R</t>
-  </si>
-  <si>
-    <t>A -&gt; I -&gt; M -&gt; P -&gt; O -&gt; D -&gt; N -&gt; E -&gt; K</t>
-  </si>
-  <si>
-    <t>K -&gt; O -&gt; H -&gt; G -&gt; C -&gt; M -&gt; E -&gt; P -&gt; S</t>
-  </si>
-  <si>
-    <t>The least cost path from node G to node F is G -&gt; H -&gt; I -&gt; J -&gt; F. The sequence of nodes is G, H, I, J, and F.</t>
-  </si>
-  <si>
-    <t>The least cost path from node J to node F is J -&gt; I -&gt; H -&gt; E -&gt; F. The sequence of nodes is J -&gt; I -&gt; H -&gt; E -&gt; F.</t>
-  </si>
-  <si>
-    <t>The least cost path from node B to node Q is B -&gt; F -&gt; N -&gt; M -&gt; A -&gt; V -&gt; S -&gt; G -&gt; Y -&gt; X -&gt; Q. The sequence of nodes is B, F, N, M, A, V, S, G, Y, X, Q. The total cost is 3 + 0 + 4 + 0 + 5 + 0 + 0 + 0 + 0 + 0 = 17.</t>
-  </si>
-  <si>
-    <t>The least cost path from node G to node O is G -&gt; I -&gt; L -&gt; O. The sequence of nodes is G, I, L, and O.</t>
-  </si>
-  <si>
-    <t>The least cost path from node Q to node I is Q -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; H -&gt; I. The sequence of nodes is: Q, R, F, N, M, B, A, V, S, G, H, I.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node V is A -&gt; C -&gt; G -&gt; H -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; U -&gt; V.
-The sequence of nodes is: A, C, G, H, I, J, L, M, N, O, P, Q, R, S, T, U, V.</t>
-  </si>
-  <si>
-    <t>The least cost path from node T to node N is T -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G. The sequence of nodes is T -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G.</t>
-  </si>
-  <si>
-    <t>The least cost path from node M to node R is M -&gt; F -&gt; N -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; R. The sequence of nodes is M -&gt; F -&gt; N -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; R.</t>
-  </si>
-  <si>
-    <t>The least cost path from node A to node K is A -&gt; F -&gt; N -&gt; M -&gt; B -&gt; V -&gt; S -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K. The sequence of nodes is A, F, N, M, B, V, S, G, H, I, J, K.</t>
-  </si>
-  <si>
-    <t>The least cost path from node K to node S is K -&gt; F -&gt; N -&gt; M -&gt; B -&gt; V -&gt; S -&gt; G.</t>
+What is the least cost path from node U to node J? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0
+ B 0 0 0 0 0 0 0 0 0 0 0 2 5 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 2 0 0 0 2
+ D 0 0 0 0 0 0 5 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 4 0 0 5 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 0 0 0 0 0 0
+ J 0 0 0 5 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 0 0 0 0 2 3 3 0 0 0 0 0 0 0 0 0
+ L 0 2 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ N 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ O 0 0 0 0 0 5 0 0 0 4 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 5 0 0 3 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ Q 0 0 4 0 0 0 0 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 3
+ S 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 5 0 3 0
+ T 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ U 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ V 2 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0
+ X 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0
+ Y 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>K -&gt; D -&gt; C -&gt; O -&gt; A -&gt; I -&gt; N -&gt; J -&gt; V</t>
+  </si>
+  <si>
+    <t>T -&gt; F -&gt; E -&gt; C -&gt; K -&gt; Y -&gt; J -&gt; D -&gt; L</t>
+  </si>
+  <si>
+    <t>J -&gt; A -&gt; T -&gt; M -&gt; N -&gt; G -&gt; I -&gt; K -&gt; Q</t>
+  </si>
+  <si>
+    <t>Q -&gt; N -&gt; D -&gt; K -&gt; V -&gt; U -&gt; I -&gt; E -&gt; L</t>
+  </si>
+  <si>
+    <t>T -&gt; X -&gt; V -&gt; L -&gt; D -&gt; C -&gt; E -&gt; N -&gt; P</t>
+  </si>
+  <si>
+    <t>H -&gt; B -&gt; A -&gt; M -&gt; S -&gt; D -&gt; X -&gt; F -&gt; V</t>
+  </si>
+  <si>
+    <t>R -&gt; Y -&gt; S -&gt; Q -&gt; U -&gt; I -&gt; T -&gt; V -&gt; H</t>
+  </si>
+  <si>
+    <t>Q -&gt; N -&gt; S -&gt; R -&gt; I -&gt; L -&gt; A -&gt; H -&gt; F</t>
+  </si>
+  <si>
+    <t>W -&gt; F -&gt; D -&gt; G -&gt; U -&gt; L -&gt; E -&gt; A -&gt; B</t>
+  </si>
+  <si>
+    <t>U -&gt; C -&gt; Y -&gt; R -&gt; W -&gt; N -&gt; K -&gt; O -&gt; J</t>
+  </si>
+  <si>
+    <t>The least cost path from node K to node V is K -&gt; F -&gt; N -&gt; M -&gt; B -&gt; V -&gt; S -&gt; G.</t>
+  </si>
+  <si>
+    <t>The least cost path from node T to node L is T -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; L. The sequence of nodes is T -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; L.</t>
+  </si>
+  <si>
+    <t>The least cost path from node J to node Q is J -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; Q. The sequence of nodes is J -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; Q.</t>
+  </si>
+  <si>
+    <t>The least cost path from node Q to node L is Q -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; L. The sequence of nodes is Q, R, F, N, M, B, A, V, S, G, L.</t>
+  </si>
+  <si>
+    <t>The least cost path from node T to node P is T -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G.</t>
+  </si>
+  <si>
+    <t>The least cost path from node H to node V is H -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G.</t>
+  </si>
+  <si>
+    <t>The least cost path from node R to node H is R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; H. The sequence of nodes is R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; A -&gt; V -&gt; S -&gt; G -&gt; H.</t>
+  </si>
+  <si>
+    <t>The least cost path from node Q to node F is Q -&gt; R -&gt; S -&gt; T -&gt; F. The sequence of nodes is Q, R, S, T, and F.</t>
+  </si>
+  <si>
+    <t>The least cost path from node W to node B is W -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B. The sequence of nodes is W -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B.</t>
+  </si>
+  <si>
+    <t>The least cost path from node U to node J is U -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; V -&gt; S -&gt; G -&gt; H -&gt; I -&gt; J. The sequence of nodes is U -&gt; R -&gt; F -&gt; N -&gt; M -&gt; B -&gt; V -&gt; S -&gt; G -&gt; H -&gt; I -&gt; J. The total cost is 2 + 3 + 2 + 1 + 5 + 2 + 5 + 1 + 1 + 2 = 25.</t>
   </si>
 </sst>
 </file>
@@ -2154,10 +2156,10 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2168,10 +2170,10 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2182,10 +2184,10 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2196,10 +2198,10 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2207,13 +2209,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2221,13 +2223,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2235,13 +2237,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2249,13 +2251,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2263,13 +2265,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2277,13 +2279,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2315,142 +2317,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2482,142 +2484,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
